--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020720.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4935,12 +4935,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7483,12 +7483,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7777,12 +7777,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7819,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7987,12 +7987,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9167,12 +9167,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
